--- a/RUDN/Importance/Varible_f_reg_in_Eastern Africa.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Eastern Africa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>F-value</t>
   </si>
@@ -22,55 +22,220 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
@@ -79,295 +244,550 @@
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (%)</t>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
@@ -376,121 +796,10 @@
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
 </sst>
 </file>
@@ -848,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>758.8447812248813</v>
+        <v>8683.955041308593</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -878,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>758.8447812248813</v>
+        <v>1903.969787962667</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -889,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>645.9930047874217</v>
+        <v>1339.499722163714</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -900,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>290.6644213209244</v>
+        <v>822.774075733084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -911,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>272.0102343118477</v>
+        <v>689.7708942666919</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -922,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>271.9431492000796</v>
+        <v>689.7708942666919</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -933,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>268.5628978670347</v>
+        <v>581.5799517000917</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -944,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>265.7816027904659</v>
+        <v>544.252901442101</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -955,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>264.856234031955</v>
+        <v>470.8564601188862</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -966,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>264.6144408805216</v>
+        <v>381.2287817177613</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -977,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>246.8865022740101</v>
+        <v>375.9868950692715</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -988,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>243.0863497838888</v>
+        <v>374.0178481582194</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -999,7 +1308,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>239.4413346125971</v>
+        <v>366.2022580176046</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1010,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>229.2703077717717</v>
+        <v>361.8923906129546</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1021,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>227.9176179921641</v>
+        <v>360.7246110746839</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1032,7 +1341,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>226.0910413054919</v>
+        <v>359.1962398951003</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1043,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>157.2062428614713</v>
+        <v>359.1962398951003</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1054,7 +1363,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>116.7363416659075</v>
+        <v>348.0957530641628</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1065,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>106.3439993953564</v>
+        <v>344.8893883581911</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1076,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>94.26832633902217</v>
+        <v>343.3818212302385</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1087,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>90.34153166031889</v>
+        <v>340.0484991855586</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1098,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>70.13155569850016</v>
+        <v>334.9904847111495</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1109,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>69.48405724286916</v>
+        <v>331.9799328379853</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1120,7 +1429,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>67.91716267974519</v>
+        <v>331.771662771036</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1131,7 +1440,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>65.38850508960442</v>
+        <v>325.7313635624329</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1142,7 +1451,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>65.15912629725641</v>
+        <v>322.9486547883412</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1153,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>56.60533237807922</v>
+        <v>312.0063340805035</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1164,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>51.34542844759279</v>
+        <v>307.5697785928839</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1175,7 +1484,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>50.27744469539778</v>
+        <v>307.5004365668211</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1186,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>46.56067937716293</v>
+        <v>296.6219275321622</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1197,7 +1506,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>44.79338442014851</v>
+        <v>293.0255046201015</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1208,7 +1517,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>44.64348313900849</v>
+        <v>292.5358972836753</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1219,7 +1528,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>44.60846349264654</v>
+        <v>288.2577866826303</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1230,7 +1539,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>44.58573482436218</v>
+        <v>273.1380753100291</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1241,7 +1550,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>44.1750985114406</v>
+        <v>270.5926541598949</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1252,7 +1561,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>44.00539459667097</v>
+        <v>269.2688952150484</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1263,7 +1572,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>43.79690524640181</v>
+        <v>266.9316426442036</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1274,7 +1583,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>43.66695776228995</v>
+        <v>265.493771737242</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1285,7 +1594,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>43.25146825083738</v>
+        <v>261.9690849143948</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1296,7 +1605,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>40.63548355719012</v>
+        <v>259.1350706845283</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1307,7 +1616,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>40.15887920794779</v>
+        <v>258.6398044214956</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1318,7 +1627,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>39.42452257583346</v>
+        <v>258.3226286592043</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1329,7 +1638,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>38.88179025713807</v>
+        <v>257.9085258600186</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1340,7 +1649,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>38.82808153566122</v>
+        <v>256.8349479772389</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1351,7 +1660,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>38.73026939303688</v>
+        <v>253.2774643372496</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1362,7 +1671,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>38.65091817072601</v>
+        <v>252.3041910886165</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1373,7 +1682,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>38.39782599479798</v>
+        <v>251.1962456622163</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1384,7 +1693,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>36.97771245019771</v>
+        <v>247.6725884922461</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1395,7 +1704,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>36.8424065455126</v>
+        <v>246.6153429295481</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1406,7 +1715,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>31.96305887342148</v>
+        <v>244.9960701274772</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1417,7 +1726,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>30.0343679716672</v>
+        <v>239.5134900141618</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1428,7 +1737,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>29.94665616320678</v>
+        <v>229.7746510082477</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1439,7 +1748,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>29.66617812201553</v>
+        <v>226.7620402589553</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1450,7 +1759,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>29.38483616339326</v>
+        <v>226.2081663683158</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1461,7 +1770,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>29.35654901056759</v>
+        <v>226.1990382707676</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1472,7 +1781,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>29.32996815994987</v>
+        <v>224.7648314842118</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1483,7 +1792,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>29.128945332702</v>
+        <v>224.1197577923891</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1494,7 +1803,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>29.00784900571717</v>
+        <v>217.9100017417119</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1505,7 +1814,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>28.97332488312165</v>
+        <v>216.3952939659724</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1516,7 +1825,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>28.93466481748212</v>
+        <v>210.4113102034542</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1527,7 +1836,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>28.88050480448526</v>
+        <v>201.3631500369567</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1538,7 +1847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>28.80986959214579</v>
+        <v>194.3693005077432</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1549,7 +1858,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>28.62443440394027</v>
+        <v>192.6318641287271</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1560,7 +1869,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>28.46958422129569</v>
+        <v>184.361540771899</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1571,7 +1880,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>28.4612959252222</v>
+        <v>160.5778744201591</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1582,7 +1891,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>28.25784744858204</v>
+        <v>156.097005081366</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1593,7 +1902,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>28.11790246986842</v>
+        <v>155.4175933495634</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1604,7 +1913,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>28.07261433248208</v>
+        <v>154.0094261574164</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1615,7 +1924,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>27.80806655020329</v>
+        <v>143.685316993343</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1626,7 +1935,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>27.5738528938993</v>
+        <v>118.368017700348</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1637,7 +1946,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>27.0230182023207</v>
+        <v>118.368017700348</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1648,7 +1957,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>27.0230182023207</v>
+        <v>116.5133717706289</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1659,7 +1968,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>26.47101577436543</v>
+        <v>111.6984304843913</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1670,7 +1979,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>25.38447141930437</v>
+        <v>102.1116019746874</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1681,7 +1990,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>25.37147155022829</v>
+        <v>100.799629285055</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1692,7 +2001,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>24.93867051009341</v>
+        <v>85.25008334232932</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1703,7 +2012,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>24.92868881573018</v>
+        <v>83.58325226008583</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1714,7 +2023,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>24.8529246434414</v>
+        <v>79.80457990293814</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1725,7 +2034,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>24.55489954424988</v>
+        <v>76.69463703101093</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1736,7 +2045,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>23.52218044178574</v>
+        <v>74.04056295520722</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1747,7 +2056,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>23.45803377963062</v>
+        <v>68.96772085138771</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1758,7 +2067,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>22.35257698980088</v>
+        <v>68.23904517765631</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1769,10 +2078,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>21.7602476394796</v>
+        <v>67.52527534128953</v>
       </c>
       <c r="C84">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1780,10 +2089,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>20.81533983082319</v>
+        <v>66.01779754512339</v>
       </c>
       <c r="C85">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1791,10 +2100,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>20.81533983082319</v>
+        <v>64.775074115458</v>
       </c>
       <c r="C86">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1802,10 +2111,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>19.25403303706438</v>
+        <v>62.97336143727791</v>
       </c>
       <c r="C87">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1813,10 +2122,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>19.22962219657153</v>
+        <v>62.81152076528545</v>
       </c>
       <c r="C88">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1824,10 +2133,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>19.18961122524954</v>
+        <v>62.79377494870463</v>
       </c>
       <c r="C89">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1835,10 +2144,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>18.78563498526594</v>
+        <v>62.72075142845203</v>
       </c>
       <c r="C90">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1846,10 +2155,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>18.77092077075215</v>
+        <v>62.0449449016209</v>
       </c>
       <c r="C91">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1857,10 +2166,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>17.47246827812169</v>
+        <v>61.56254566593353</v>
       </c>
       <c r="C92">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1868,10 +2177,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>16.7257304203713</v>
+        <v>60.69696730095401</v>
       </c>
       <c r="C93">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1879,10 +2188,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>16.65100750667678</v>
+        <v>59.77663081263908</v>
       </c>
       <c r="C94">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1890,10 +2199,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>16.65100750667678</v>
+        <v>59.75555889926094</v>
       </c>
       <c r="C95">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1901,10 +2210,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>16.64148183970525</v>
+        <v>47.79251485297809</v>
       </c>
       <c r="C96">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1912,10 +2221,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>16.37956412387562</v>
+        <v>47.79251485286959</v>
       </c>
       <c r="C97">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1923,10 +2232,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>16.32581342329181</v>
+        <v>47.13572466669448</v>
       </c>
       <c r="C98">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1934,10 +2243,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>16.12074684258556</v>
+        <v>46.50915217325204</v>
       </c>
       <c r="C99">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1945,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>15.27149080480422</v>
+        <v>46.23301648684753</v>
       </c>
       <c r="C100">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1956,10 +2265,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>15.17736012102212</v>
+        <v>45.88720497180233</v>
       </c>
       <c r="C101">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1967,10 +2276,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>15.16388200784116</v>
+        <v>45.76995272147456</v>
       </c>
       <c r="C102">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1978,10 +2287,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>15.07492485918596</v>
+        <v>45.64336330463748</v>
       </c>
       <c r="C103">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1989,10 +2298,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>14.94374497872422</v>
+        <v>45.49136691565497</v>
       </c>
       <c r="C104">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2000,10 +2309,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>14.85951679586116</v>
+        <v>45.47610505244818</v>
       </c>
       <c r="C105">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2011,10 +2320,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>14.61893565969079</v>
+        <v>45.20143408679141</v>
       </c>
       <c r="C106">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2022,10 +2331,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>14.5835969285475</v>
+        <v>45.20143408679141</v>
       </c>
       <c r="C107">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2033,10 +2342,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>14.17264965746807</v>
+        <v>45.10749386410067</v>
       </c>
       <c r="C108">
-        <v>0.00021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2044,10 +2353,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>14.0489799637731</v>
+        <v>44.92833200177383</v>
       </c>
       <c r="C109">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2055,10 +2364,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>13.90411426797331</v>
+        <v>44.85399677355794</v>
       </c>
       <c r="C110">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2066,10 +2375,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>13.7128124223005</v>
+        <v>44.70654018197354</v>
       </c>
       <c r="C111">
-        <v>0.00027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2077,10 +2386,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>13.57929496291728</v>
+        <v>43.86231838615002</v>
       </c>
       <c r="C112">
-        <v>0.00028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2088,10 +2397,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>13.45336116987272</v>
+        <v>41.93518775806524</v>
       </c>
       <c r="C113">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2099,10 +2408,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>13.3003904507812</v>
+        <v>41.53107864090568</v>
       </c>
       <c r="C114">
-        <v>0.00033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2110,10 +2419,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>13.18698293749921</v>
+        <v>41.50976382896669</v>
       </c>
       <c r="C115">
-        <v>0.00035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2121,10 +2430,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>13.14747602330919</v>
+        <v>41.34045508784452</v>
       </c>
       <c r="C116">
-        <v>0.00035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2132,10 +2441,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>12.9727190494611</v>
+        <v>40.42094041283916</v>
       </c>
       <c r="C117">
-        <v>0.00039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2143,10 +2452,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>12.92372208652549</v>
+        <v>40.36745500688803</v>
       </c>
       <c r="C118">
-        <v>0.00039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2154,10 +2463,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>12.81097334645868</v>
+        <v>40.3367197919318</v>
       </c>
       <c r="C119">
-        <v>0.00042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2165,10 +2474,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>12.37075266817852</v>
+        <v>40.32568503078018</v>
       </c>
       <c r="C120">
-        <v>0.00052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2176,10 +2485,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>12.336748199964</v>
+        <v>40.31363558989099</v>
       </c>
       <c r="C121">
-        <v>0.00053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2187,10 +2496,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>11.93650166404808</v>
+        <v>40.2930905721766</v>
       </c>
       <c r="C122">
-        <v>0.00065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2198,10 +2507,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>10.92265155332325</v>
+        <v>40.20778167644426</v>
       </c>
       <c r="C123">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2209,10 +2518,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>10.86466862129217</v>
+        <v>40.20402499467337</v>
       </c>
       <c r="C124">
-        <v>0.00113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2220,10 +2529,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>10.86135912071236</v>
+        <v>40.04365922940567</v>
       </c>
       <c r="C125">
-        <v>0.00113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2231,10 +2540,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>10.76501256016552</v>
+        <v>40.03229902041323</v>
       </c>
       <c r="C126">
-        <v>0.00119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2242,10 +2551,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>10.74454543930853</v>
+        <v>39.96609722703651</v>
       </c>
       <c r="C127">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2253,10 +2562,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>10.72879606809139</v>
+        <v>39.90577758437257</v>
       </c>
       <c r="C128">
-        <v>0.00121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2264,10 +2573,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>10.5354762960693</v>
+        <v>39.85248336395529</v>
       </c>
       <c r="C129">
-        <v>0.00134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2275,10 +2584,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>10.49683999644099</v>
+        <v>39.71601706842034</v>
       </c>
       <c r="C130">
-        <v>0.00137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2286,10 +2595,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>10.46818505008113</v>
+        <v>39.71596720047398</v>
       </c>
       <c r="C131">
-        <v>0.00139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2297,10 +2606,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>10.31620051608189</v>
+        <v>39.61246106669696</v>
       </c>
       <c r="C132">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2308,10 +2617,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>10.22119894909237</v>
+        <v>39.57714595088888</v>
       </c>
       <c r="C133">
-        <v>0.00158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2319,10 +2628,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>10.21848714276294</v>
+        <v>39.54681153772085</v>
       </c>
       <c r="C134">
-        <v>0.00158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2330,10 +2639,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>10.18142276877237</v>
+        <v>39.44289957567172</v>
       </c>
       <c r="C135">
-        <v>0.00161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2341,10 +2650,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>10.10001765057918</v>
+        <v>39.41807648328</v>
       </c>
       <c r="C136">
-        <v>0.00168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2352,10 +2661,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>10.09635200025133</v>
+        <v>39.32033192861501</v>
       </c>
       <c r="C137">
-        <v>0.00168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2363,10 +2672,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>10.08589358170435</v>
+        <v>39.18888093486724</v>
       </c>
       <c r="C138">
-        <v>0.00169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2374,10 +2683,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>9.870760273581746</v>
+        <v>38.91361154097741</v>
       </c>
       <c r="C139">
-        <v>0.00189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2385,10 +2694,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>9.865096073284077</v>
+        <v>38.56271676378064</v>
       </c>
       <c r="C140">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2396,10 +2705,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>9.841408619343367</v>
+        <v>38.49334697931764</v>
       </c>
       <c r="C141">
-        <v>0.00192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2407,10 +2716,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>9.801650072599822</v>
+        <v>37.50688885746828</v>
       </c>
       <c r="C142">
-        <v>0.00196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2418,10 +2727,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>9.801650072599822</v>
+        <v>36.77556901630525</v>
       </c>
       <c r="C143">
-        <v>0.00196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2429,10 +2738,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>9.695220430608448</v>
+        <v>32.80214913126814</v>
       </c>
       <c r="C144">
-        <v>0.00208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2440,10 +2749,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>9.675111907928821</v>
+        <v>32.33096357356097</v>
       </c>
       <c r="C145">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2451,10 +2760,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>9.534464857427613</v>
+        <v>32.30344673859329</v>
       </c>
       <c r="C146">
-        <v>0.00226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2462,10 +2771,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>9.454015246395647</v>
+        <v>32.02892099797756</v>
       </c>
       <c r="C147">
-        <v>0.00235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2473,10 +2782,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>9.454015246395647</v>
+        <v>32.00436120311861</v>
       </c>
       <c r="C148">
-        <v>0.00235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2484,10 +2793,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>9.224086329022256</v>
+        <v>31.22418479347633</v>
       </c>
       <c r="C149">
-        <v>0.00266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2495,10 +2804,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>9.174958136364591</v>
+        <v>30.94048917202937</v>
       </c>
       <c r="C150">
-        <v>0.00273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2506,10 +2815,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>9.017950806055071</v>
+        <v>30.28448839266916</v>
       </c>
       <c r="C151">
-        <v>0.00296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2517,10 +2826,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>8.352090873517547</v>
+        <v>30.13111453353544</v>
       </c>
       <c r="C152">
-        <v>0.00421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2528,10 +2837,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>8.198141619192945</v>
+        <v>30.13111453353484</v>
       </c>
       <c r="C153">
-        <v>0.00457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2539,10 +2848,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>8.094536340660618</v>
+        <v>28.90062135256963</v>
       </c>
       <c r="C154">
-        <v>0.00483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2550,10 +2859,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>7.375121930601247</v>
+        <v>28.66177815088878</v>
       </c>
       <c r="C155">
-        <v>0.0071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2561,10 +2870,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>7.251945592962755</v>
+        <v>27.89207034104074</v>
       </c>
       <c r="C156">
-        <v>0.00759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2572,10 +2881,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>7.183016557023917</v>
+        <v>26.48778688832726</v>
       </c>
       <c r="C157">
-        <v>0.00788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2583,10 +2892,1143 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>6.790242648277276</v>
+        <v>26.24652319573713</v>
       </c>
       <c r="C158">
-        <v>0.00975</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>26.00575771607035</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>25.92690309460732</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>25.34486889075899</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>25.27068423356862</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>24.04987830464729</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>23.23335600956195</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>23.2133653781286</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>22.57520134318589</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>22.46388986622602</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>22.38536679652026</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>22.34501885027262</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>22.14927659541391</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>22.07825936242728</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>22.02498065098808</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>21.58424339923324</v>
+      </c>
+      <c r="C173">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>21.58102091565947</v>
+      </c>
+      <c r="C174">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>21.30783843991946</v>
+      </c>
+      <c r="C175">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>19.75604083974688</v>
+      </c>
+      <c r="C176">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>19.47743094627628</v>
+      </c>
+      <c r="C177">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>19.37826145225939</v>
+      </c>
+      <c r="C178">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>18.97225268595905</v>
+      </c>
+      <c r="C179">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>18.77437411886231</v>
+      </c>
+      <c r="C180">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>18.38462149155196</v>
+      </c>
+      <c r="C181">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>18.35911718593664</v>
+      </c>
+      <c r="C182">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>18.35911718593664</v>
+      </c>
+      <c r="C183">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>18.07876829201222</v>
+      </c>
+      <c r="C184">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>17.98509162049567</v>
+      </c>
+      <c r="C185">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>17.59333623030425</v>
+      </c>
+      <c r="C186">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>17.18637465616461</v>
+      </c>
+      <c r="C187">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>16.47506476199496</v>
+      </c>
+      <c r="C188">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>16.4385363641369</v>
+      </c>
+      <c r="C189">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>15.95720217007152</v>
+      </c>
+      <c r="C190">
+        <v>9.000000000000001e-05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>15.08281204713358</v>
+      </c>
+      <c r="C191">
+        <v>0.00014</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>14.77847809736184</v>
+      </c>
+      <c r="C192">
+        <v>0.00016</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>13.79027271516015</v>
+      </c>
+      <c r="C193">
+        <v>0.00026</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>13.75032616607373</v>
+      </c>
+      <c r="C194">
+        <v>0.00026</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>13.55260942546764</v>
+      </c>
+      <c r="C195">
+        <v>0.00029</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>13.50728528702799</v>
+      </c>
+      <c r="C196">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>13.49093943647329</v>
+      </c>
+      <c r="C197">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>13.24581296957521</v>
+      </c>
+      <c r="C198">
+        <v>0.00034</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>12.98442579889615</v>
+      </c>
+      <c r="C199">
+        <v>0.00039</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>12.57504794798776</v>
+      </c>
+      <c r="C200">
+        <v>0.00048</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>12.52470195093008</v>
+      </c>
+      <c r="C201">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>12.50627255900462</v>
+      </c>
+      <c r="C202">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>12.48619566126439</v>
+      </c>
+      <c r="C203">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>12.4710640226976</v>
+      </c>
+      <c r="C204">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>12.4710640226976</v>
+      </c>
+      <c r="C205">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>12.35827578313384</v>
+      </c>
+      <c r="C206">
+        <v>0.00053</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>12.25853044995909</v>
+      </c>
+      <c r="C207">
+        <v>0.00056</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>12.16952901748565</v>
+      </c>
+      <c r="C208">
+        <v>0.00059</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>12.07549734212875</v>
+      </c>
+      <c r="C209">
+        <v>0.00062</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>11.96388330777192</v>
+      </c>
+      <c r="C210">
+        <v>0.00065</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>11.93585252883916</v>
+      </c>
+      <c r="C211">
+        <v>0.00066</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>11.84618625887533</v>
+      </c>
+      <c r="C212">
+        <v>0.00069</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>11.62494393559947</v>
+      </c>
+      <c r="C213">
+        <v>0.00077</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>11.41455704511846</v>
+      </c>
+      <c r="C214">
+        <v>0.00086</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>11.1712661338402</v>
+      </c>
+      <c r="C215">
+        <v>0.00098</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>11.13292518088986</v>
+      </c>
+      <c r="C216">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>11.04378747347355</v>
+      </c>
+      <c r="C217">
+        <v>0.00104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>10.96318523188656</v>
+      </c>
+      <c r="C218">
+        <v>0.00109</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>10.93775187489141</v>
+      </c>
+      <c r="C219">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>10.89745454813574</v>
+      </c>
+      <c r="C220">
+        <v>0.00112</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>10.8687920495901</v>
+      </c>
+      <c r="C221">
+        <v>0.00114</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>10.78449715503628</v>
+      </c>
+      <c r="C222">
+        <v>0.00119</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>10.77266537421885</v>
+      </c>
+      <c r="C223">
+        <v>0.0012</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>10.75090963102355</v>
+      </c>
+      <c r="C224">
+        <v>0.00121</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>10.47430733357418</v>
+      </c>
+      <c r="C225">
+        <v>0.0014</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>10.32411853396321</v>
+      </c>
+      <c r="C226">
+        <v>0.00151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>10.31367311146059</v>
+      </c>
+      <c r="C227">
+        <v>0.00152</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>10.24690583244658</v>
+      </c>
+      <c r="C228">
+        <v>0.00157</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>10.18587646594955</v>
+      </c>
+      <c r="C229">
+        <v>0.00162</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>10.1242037645249</v>
+      </c>
+      <c r="C230">
+        <v>0.00168</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>9.917769191779097</v>
+      </c>
+      <c r="C231">
+        <v>0.00187</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>9.888769225086206</v>
+      </c>
+      <c r="C232">
+        <v>0.00189</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>9.876034863127268</v>
+      </c>
+      <c r="C233">
+        <v>0.00191</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>9.870676203472758</v>
+      </c>
+      <c r="C234">
+        <v>0.00191</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>9.798731657364662</v>
+      </c>
+      <c r="C235">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>9.798731657364662</v>
+      </c>
+      <c r="C236">
+        <v>0.00198</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>9.773996808597801</v>
+      </c>
+      <c r="C237">
+        <v>0.00201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>9.712867044423049</v>
+      </c>
+      <c r="C238">
+        <v>0.00207</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>9.673108451255425</v>
+      </c>
+      <c r="C239">
+        <v>0.00212</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>9.562102488681246</v>
+      </c>
+      <c r="C240">
+        <v>0.00224</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>9.546793802925777</v>
+      </c>
+      <c r="C241">
+        <v>0.00226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>9.536814010412199</v>
+      </c>
+      <c r="C242">
+        <v>0.00227</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>9.4521091273806</v>
+      </c>
+      <c r="C243">
+        <v>0.00238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>9.4521091273806</v>
+      </c>
+      <c r="C244">
+        <v>0.00238</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>9.085208527851762</v>
+      </c>
+      <c r="C245">
+        <v>0.00288</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>9.071866081860213</v>
+      </c>
+      <c r="C246">
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>9.030711024839405</v>
+      </c>
+      <c r="C247">
+        <v>0.00296</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>8.985372389066454</v>
+      </c>
+      <c r="C248">
+        <v>0.00304</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>8.917979195789169</v>
+      </c>
+      <c r="C249">
+        <v>0.00315</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>8.899941147434133</v>
+      </c>
+      <c r="C250">
+        <v>0.00318</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>8.852899562544135</v>
+      </c>
+      <c r="C251">
+        <v>0.00325</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>8.543856127496161</v>
+      </c>
+      <c r="C252">
+        <v>0.00383</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>8.474274603711008</v>
+      </c>
+      <c r="C253">
+        <v>0.00397</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>8.269518333196988</v>
+      </c>
+      <c r="C254">
+        <v>0.00443</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>7.764712418127103</v>
+      </c>
+      <c r="C255">
+        <v>0.0058</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>7.739916561835581</v>
+      </c>
+      <c r="C256">
+        <v>0.00587</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>7.404990154707491</v>
+      </c>
+      <c r="C257">
+        <v>0.00703</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>7.375198876535983</v>
+      </c>
+      <c r="C258">
+        <v>0.00714</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>7.273570681425917</v>
+      </c>
+      <c r="C259">
+        <v>0.00754</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>6.85290057730526</v>
+      </c>
+      <c r="C260">
+        <v>0.009469999999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>6.85290057730526</v>
+      </c>
+      <c r="C261">
+        <v>0.009469999999999999</v>
       </c>
     </row>
   </sheetData>
